--- a/data/trans_dic/P44-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P44-Dificultad-trans_dic.xlsx
@@ -664,7 +664,7 @@
         <v>0.07499729924703211</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.2908997200427477</v>
+        <v>0.2908997200427478</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04317544077228608</v>
+        <v>0.04502424253734163</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06958416692423622</v>
+        <v>0.06902458932389387</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2237666779374945</v>
+        <v>0.2260368128939715</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05535780839068551</v>
+        <v>0.05679740312052484</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04152717214902682</v>
+        <v>0.03921305454261717</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2593225615667992</v>
+        <v>0.262822074249812</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05808837779209178</v>
+        <v>0.0575452152574257</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05916707966287944</v>
+        <v>0.05987072336288075</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2568616505892989</v>
+        <v>0.2579697218801982</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09698312518528331</v>
+        <v>0.1007122178567089</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1278297489786766</v>
+        <v>0.1249552172302628</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3375123056045051</v>
+        <v>0.3368766494940134</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1098965674920737</v>
+        <v>0.1091902346617622</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.08441703957484056</v>
+        <v>0.08100128598818161</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3414231050703429</v>
+        <v>0.3438044369994591</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.09615212578135789</v>
+        <v>0.09758898453845762</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.09170096330474789</v>
+        <v>0.09260094481741005</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3247193147281667</v>
+        <v>0.3268421047782157</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.1133485777052729</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3490899227237845</v>
+        <v>0.3490899227237846</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.07097851869079472</v>
@@ -773,7 +773,7 @@
         <v>0.09300616477874402</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.3079127368847217</v>
+        <v>0.3079127368847218</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07445512212236745</v>
+        <v>0.07455256138885458</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0828258755250717</v>
+        <v>0.08299123968759674</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3059090386052944</v>
+        <v>0.3075678519846032</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04811282926957736</v>
+        <v>0.04749298873154874</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04953018786469463</v>
+        <v>0.05300324304639206</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2484108332341974</v>
+        <v>0.2493361586641213</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06837163785916663</v>
+        <v>0.06427476687892618</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07349520387238889</v>
+        <v>0.07267727614299349</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2844247599484818</v>
+        <v>0.282645458753092</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.15586568578596</v>
+        <v>0.1590251594794251</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1485067555580321</v>
+        <v>0.1520334070430482</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3903904743078152</v>
+        <v>0.3923873831717666</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1017042871462284</v>
+        <v>0.09895845886121409</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1046444363477434</v>
+        <v>0.1063740268736664</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3079022095524808</v>
+        <v>0.3059366267984072</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1118446740213836</v>
+        <v>0.1103655562038519</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1147437863003961</v>
+        <v>0.1148814027127012</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.333339644955621</v>
+        <v>0.3333541806915909</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
         <v>0.08694660972460792</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.306230469560954</v>
+        <v>0.3062304695609541</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.07480041841286222</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05965887185609604</v>
+        <v>0.05799027972665407</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08458358086100295</v>
+        <v>0.08559651993341749</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.327741645663475</v>
+        <v>0.3291162302310607</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03893628609525408</v>
+        <v>0.03957129510366938</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06070217320771173</v>
+        <v>0.05992792299759107</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.273934037120214</v>
+        <v>0.2751458725389028</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05631047989991735</v>
+        <v>0.05648493562297213</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.08155128330780578</v>
+        <v>0.07876916433156812</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3138252020832396</v>
+        <v>0.3119885126451019</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1218714328474445</v>
+        <v>0.126846358638686</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1508874372620705</v>
+        <v>0.1552067397645289</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.40728518444061</v>
+        <v>0.4112519273392531</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09600731849656367</v>
+        <v>0.09479578132185695</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1266327295573369</v>
+        <v>0.1249742600079796</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3391863407977594</v>
+        <v>0.3374703822483546</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.09752596650105673</v>
+        <v>0.09923166887252145</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1261333476703867</v>
+        <v>0.1240372400184638</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3638272452003669</v>
+        <v>0.3641706473859079</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.1765154931286699</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.4156530598831078</v>
+        <v>0.4156530598831079</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.1021504853031845</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08948511263310116</v>
+        <v>0.09418267600868234</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1242294191703493</v>
+        <v>0.1272793387367936</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3749460400035824</v>
+        <v>0.3719354907720172</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06325891332249788</v>
+        <v>0.06031712787819699</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0591377283175671</v>
+        <v>0.06073934317640816</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3051048441406646</v>
+        <v>0.3021881810120494</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.08849120222920841</v>
+        <v>0.08768571200701096</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1061536399066945</v>
+        <v>0.1031974675769238</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3503376933894514</v>
+        <v>0.3531963520191366</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2155826594427356</v>
+        <v>0.2168979650982301</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2392253507579361</v>
+        <v>0.2385629494705066</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4604870785923802</v>
+        <v>0.4566035603627983</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1650055751652747</v>
+        <v>0.1564627543069626</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1572470649526591</v>
+        <v>0.1552643390260487</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3817370709787991</v>
+        <v>0.3694540375354289</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1749375351280702</v>
+        <v>0.1684975573206069</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1788549291044161</v>
+        <v>0.1776806969546398</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4045959134545692</v>
+        <v>0.4076836129745061</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.1179633911868575</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.3633806349814138</v>
+        <v>0.3633806349814139</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.07549852130980061</v>
@@ -1091,7 +1091,7 @@
         <v>0.07515389282949086</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.3036262613836868</v>
+        <v>0.3036262613836867</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.08471602754831199</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.07824798746484291</v>
+        <v>0.08071190130080352</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1011778813838763</v>
+        <v>0.101581832065667</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3408805743135361</v>
+        <v>0.3420987625821676</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06110741322075838</v>
+        <v>0.06232635191776475</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.061555993492992</v>
+        <v>0.06185863421322328</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2877582673392568</v>
+        <v>0.2873032248311126</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.07432706169627647</v>
+        <v>0.07209040794649731</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.08449394410748953</v>
+        <v>0.08407458272311352</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3175322126359142</v>
+        <v>0.3185513447090783</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1153030193933368</v>
+        <v>0.1174899775170536</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1368091986883721</v>
+        <v>0.1373361680247782</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3852885877007129</v>
+        <v>0.3842369752142419</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09141973906514909</v>
+        <v>0.08922293205416143</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08920581031864806</v>
+        <v>0.09061750626194598</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3209402051057905</v>
+        <v>0.3227286640145417</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.09667703410667113</v>
+        <v>0.09676710364924899</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1075496403767357</v>
+        <v>0.1066642890514094</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3459143770087689</v>
+        <v>0.3457895481258098</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>14945</v>
+        <v>15585</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>32230</v>
+        <v>31971</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>49732</v>
+        <v>50237</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>24744</v>
+        <v>25388</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>24428</v>
+        <v>23067</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>77400</v>
+        <v>78445</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>46072</v>
+        <v>45641</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>62210</v>
+        <v>62950</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>133753</v>
+        <v>134330</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>33570</v>
+        <v>34861</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>59208</v>
+        <v>57877</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>75012</v>
+        <v>74871</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>49123</v>
+        <v>48807</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>49658</v>
+        <v>47649</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>101905</v>
+        <v>102616</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>76262</v>
+        <v>77402</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>96417</v>
+        <v>97363</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>169088</v>
+        <v>170194</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>24534</v>
+        <v>24567</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>29998</v>
+        <v>30058</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>128991</v>
+        <v>129690</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>21455</v>
+        <v>21179</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>22201</v>
+        <v>23757</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>136191</v>
+        <v>136699</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>53019</v>
+        <v>49842</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>59561</v>
+        <v>58898</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>275868</v>
+        <v>274142</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>51361</v>
+        <v>52402</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>53787</v>
+        <v>55065</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>164614</v>
+        <v>165456</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>45354</v>
+        <v>44129</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>46904</v>
+        <v>47679</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>168808</v>
+        <v>167730</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>86731</v>
+        <v>85584</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>92989</v>
+        <v>93101</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>323311</v>
+        <v>323325</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>20415</v>
+        <v>19844</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>29036</v>
+        <v>29383</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>160699</v>
+        <v>161373</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>14719</v>
+        <v>14959</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>21472</v>
+        <v>21198</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>125983</v>
+        <v>126541</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>40556</v>
+        <v>40682</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>56842</v>
+        <v>54903</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>298205</v>
+        <v>296460</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>41704</v>
+        <v>43407</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>51796</v>
+        <v>53279</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>199701</v>
+        <v>201646</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>36293</v>
+        <v>35835</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>44794</v>
+        <v>44207</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>155993</v>
+        <v>155204</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>70240</v>
+        <v>71469</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>87916</v>
+        <v>86455</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>345718</v>
+        <v>346045</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>14883</v>
+        <v>15664</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>26629</v>
+        <v>27282</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>164639</v>
+        <v>163317</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>11820</v>
+        <v>11270</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>11662</v>
+        <v>11978</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>129846</v>
+        <v>128604</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>31252</v>
+        <v>30967</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>43688</v>
+        <v>42471</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>302929</v>
+        <v>305401</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>35855</v>
+        <v>36074</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>51278</v>
+        <v>51136</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>202200</v>
+        <v>200495</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>30830</v>
+        <v>29234</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>31009</v>
+        <v>30618</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>162459</v>
+        <v>157231</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>61781</v>
+        <v>59507</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>73608</v>
+        <v>73124</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>349845</v>
+        <v>352515</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>92660</v>
+        <v>95578</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>139928</v>
+        <v>140487</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>536320</v>
+        <v>538236</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>89082</v>
+        <v>90859</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>97714</v>
+        <v>98195</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>498456</v>
+        <v>497668</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>196370</v>
+        <v>190461</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>250980</v>
+        <v>249735</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1049615</v>
+        <v>1052984</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>136540</v>
+        <v>139130</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>189206</v>
+        <v>189935</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>606188</v>
+        <v>604534</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>133271</v>
+        <v>130069</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>141606</v>
+        <v>143847</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>555934</v>
+        <v>559032</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>255418</v>
+        <v>255656</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>319465</v>
+        <v>316835</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1143434</v>
+        <v>1143021</v>
       </c>
     </row>
     <row r="24">
